--- a/ref/ingestion/calibrated/dominican_republic/model_input_variables_dominican_republic_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/dominican_republic/model_input_variables_dominican_republic_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="K114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="L114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="M114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="N114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="O114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="P114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="Q114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="R114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="S114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="T114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="U114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="V114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="W114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="X114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="Y114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="Z114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AA114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AB114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AC114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AD114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AE114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AF114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AG114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AH114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AI114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AJ114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AK114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AL114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AM114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AN114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AO114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AP114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AQ114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AR114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
       <c r="AS114" t="n">
-        <v>4693476.005</v>
+        <v>124.1434065</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/dominican_republic/model_input_variables_dominican_republic_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/dominican_republic/model_input_variables_dominican_republic_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="K100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="L100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="M100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="N100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="O100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="P100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="Q100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="R100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="S100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="T100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="U100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="V100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="W100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="X100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="Y100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="Z100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AA100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AB100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AC100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AD100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AE100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AF100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AG100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AH100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AI100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AJ100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AK100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AL100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AM100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AN100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AO100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AP100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AQ100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AR100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
       <c r="AS100" t="n">
-        <v>6488203.468</v>
+        <v>845515.9486999999</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="K101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="L101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="M101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="N101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="O101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="P101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="Q101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="R101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="S101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="T101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="U101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="V101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="W101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="X101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="Y101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="Z101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AA101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AB101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AC101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AD101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AE101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AF101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AG101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AH101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AI101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AJ101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AK101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AL101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AM101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AN101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AO101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AP101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AR101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
       <c r="AS101" t="n">
-        <v>2144056.028</v>
+        <v>214405.6028</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="K103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="L103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="M103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="N103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="O103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="P103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="Q103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="R103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="S103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="T103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="U103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="V103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="W103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="X103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="Y103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="Z103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AA103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AB103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AC103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AD103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AE103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AF103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AG103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AH103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AI103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AJ103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AK103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AL103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AM103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AN103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AO103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AP103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AQ103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AR103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
       <c r="AS103" t="n">
-        <v>29742.36496</v>
+        <v>28666.87496</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="K105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="L105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="M105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="N105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="O105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="P105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="Q105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="R105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="S105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="T105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="U105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="V105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="W105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="X105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="Y105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="Z105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AA105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AB105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AC105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AD105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AE105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AF105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AG105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AH105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AI105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AJ105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AK105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AL105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AM105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AN105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AO105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AP105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AQ105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AR105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
       <c r="AS105" t="n">
-        <v>635380.8486</v>
+        <v>165199.0206</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="K106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="L106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="M106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="N106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="O106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="P106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="Q106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="R106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="S106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="T106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="U106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="V106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="W106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="X106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="Y106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="Z106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AA106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AB106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AC106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AD106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AE106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AF106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AG106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AH106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AI106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AJ106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AK106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AL106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AM106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AN106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AO106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AP106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AQ106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AR106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
       <c r="AS106" t="n">
-        <v>664984.6886</v>
+        <v>284110.9175</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="K107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="L107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="M107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="N107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="O107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="P107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="Q107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="R107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="S107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="T107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="U107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="V107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="W107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="X107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="Y107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="Z107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AA107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AB107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AC107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AD107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AE107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AF107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AG107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AH107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AI107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AJ107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AK107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AL107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AM107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AN107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AO107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AP107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AQ107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AR107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
       <c r="AS107" t="n">
-        <v>838411.4796</v>
+        <v>1676822.959</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="K115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="L115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="M115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="N115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="O115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="P115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="Q115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="R115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="S115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="T115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="U115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="V115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="W115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="X115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="Y115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="Z115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AA115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AB115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AC115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AD115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AE115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AF115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AG115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AH115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AI115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AJ115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AK115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AL115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AM115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AN115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AO115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AP115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AQ115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AR115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
       <c r="AS115" t="n">
-        <v>574963.5888</v>
+        <v>5749635.888</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/dominican_republic/model_input_variables_dominican_republic_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/dominican_republic/model_input_variables_dominican_republic_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.02921188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.943710348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.014664758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.022134027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.964796056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.027211397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.974290069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.085750025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.018346442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.988128035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.032268852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.9414458409999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.053044071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>10215273.3</v>
+        <v>14282374.9077076</v>
       </c>
       <c r="K96">
-        <v>10215273.3</v>
+        <v>11886892.519324</v>
       </c>
       <c r="L96">
-        <v>10215273.3</v>
+        <v>11428581.2771974</v>
       </c>
       <c r="M96">
-        <v>10215273.3</v>
+        <v>10821851.2150115</v>
       </c>
       <c r="N96">
-        <v>10215273.3</v>
+        <v>11487972.2999916</v>
       </c>
       <c r="O96">
-        <v>10215273.3</v>
+        <v>10215273.3000134</v>
       </c>
       <c r="P96">
-        <v>10215273.3</v>
+        <v>10215270</v>
       </c>
       <c r="Q96">
-        <v>10215273.3</v>
+        <v>10184278.4388639</v>
       </c>
       <c r="R96">
-        <v>10215273.3</v>
+        <v>10153380.9013672</v>
       </c>
       <c r="S96">
-        <v>10215273.3</v>
+        <v>10122577.1022564</v>
       </c>
       <c r="T96">
-        <v>10215273.3</v>
+        <v>10091866.7571437</v>
       </c>
       <c r="U96">
-        <v>10215273.3</v>
+        <v>10061249.5825041</v>
       </c>
       <c r="V96">
-        <v>10215273.3</v>
+        <v>10030725.2956726</v>
       </c>
       <c r="W96">
-        <v>10215273.3</v>
+        <v>10000293.6148419</v>
       </c>
       <c r="X96">
-        <v>10215273.3</v>
+        <v>9969954.2590595</v>
       </c>
       <c r="Y96">
-        <v>10215273.3</v>
+        <v>9939706.948225491</v>
       </c>
       <c r="Z96">
-        <v>10215273.3</v>
+        <v>9909551.40308959</v>
       </c>
       <c r="AA96">
-        <v>10215273.3</v>
+        <v>9879487.345248761</v>
       </c>
       <c r="AB96">
-        <v>10215273.3</v>
+        <v>9849514.49714458</v>
       </c>
       <c r="AC96">
-        <v>10215273.3</v>
+        <v>9819632.582060721</v>
       </c>
       <c r="AD96">
-        <v>10215273.3</v>
+        <v>9789841.324120341</v>
       </c>
       <c r="AE96">
-        <v>10215273.3</v>
+        <v>9760140.448283611</v>
       </c>
       <c r="AF96">
-        <v>10215273.3</v>
+        <v>9730529.68034507</v>
       </c>
       <c r="AG96">
-        <v>10215273.3</v>
+        <v>9701008.74693121</v>
       </c>
       <c r="AH96">
-        <v>10215273.3</v>
+        <v>9671577.375497861</v>
       </c>
       <c r="AI96">
-        <v>10215273.3</v>
+        <v>9642235.29432773</v>
       </c>
       <c r="AJ96">
-        <v>10215273.3</v>
+        <v>9612982.23252786</v>
       </c>
       <c r="AK96">
-        <v>10215273.3</v>
+        <v>9583817.920027141</v>
       </c>
       <c r="AL96">
-        <v>10215273.3</v>
+        <v>9554742.08757383</v>
       </c>
       <c r="AM96">
-        <v>10215273.3</v>
+        <v>9525754.46673304</v>
       </c>
       <c r="AN96">
-        <v>10215273.3</v>
+        <v>9496854.78988428</v>
       </c>
       <c r="AO96">
-        <v>10215273.3</v>
+        <v>9468042.790218979</v>
       </c>
       <c r="AP96">
-        <v>10215273.3</v>
+        <v>9439318.20173802</v>
       </c>
       <c r="AQ96">
-        <v>10215273.3</v>
+        <v>9410680.75924929</v>
       </c>
       <c r="AR96">
-        <v>10215273.3</v>
+        <v>9382130.19836523</v>
       </c>
       <c r="AS96">
-        <v>10215273.3</v>
+        <v>9353666.255500371</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>204269.1185</v>
+        <v>178948.375716022</v>
       </c>
       <c r="K97">
-        <v>204269.1185</v>
+        <v>177754.925772729</v>
       </c>
       <c r="L97">
-        <v>204269.1185</v>
+        <v>180314.442487874</v>
       </c>
       <c r="M97">
-        <v>204269.1185</v>
+        <v>230718.134473586</v>
       </c>
       <c r="N97">
-        <v>204269.1185</v>
+        <v>236094.868192736</v>
       </c>
       <c r="O97">
-        <v>204269.1185</v>
+        <v>204269.118490759</v>
       </c>
       <c r="P97">
-        <v>204269.1185</v>
+        <v>204269.1</v>
       </c>
       <c r="Q97">
-        <v>204269.1185</v>
+        <v>213052.0937904</v>
       </c>
       <c r="R97">
-        <v>204269.1185</v>
+        <v>222212.731482508</v>
       </c>
       <c r="S97">
-        <v>204269.1185</v>
+        <v>231767.250696422</v>
       </c>
       <c r="T97">
-        <v>204269.1185</v>
+        <v>241732.587223997</v>
       </c>
       <c r="U97">
-        <v>204269.1185</v>
+        <v>252126.405048258</v>
       </c>
       <c r="V97">
-        <v>204269.1185</v>
+        <v>262967.127653561</v>
       </c>
       <c r="W97">
-        <v>204269.1185</v>
+        <v>274273.970682</v>
       </c>
       <c r="X97">
-        <v>204269.1185</v>
+        <v>286066.975993956</v>
       </c>
       <c r="Y97">
-        <v>204269.1185</v>
+        <v>298367.047193142</v>
       </c>
       <c r="Z97">
-        <v>204269.1185</v>
+        <v>311195.986679131</v>
       </c>
       <c r="AA97">
-        <v>204269.1185</v>
+        <v>324576.534293041</v>
       </c>
       <c r="AB97">
-        <v>204269.1185</v>
+        <v>338532.407624863</v>
       </c>
       <c r="AC97">
-        <v>204269.1185</v>
+        <v>353088.34405391</v>
       </c>
       <c r="AD97">
-        <v>204269.1185</v>
+        <v>368270.144596862</v>
       </c>
       <c r="AE97">
-        <v>204269.1185</v>
+        <v>384104.719641174</v>
       </c>
       <c r="AF97">
-        <v>204269.1185</v>
+        <v>400620.136644881</v>
       </c>
       <c r="AG97">
-        <v>204269.1185</v>
+        <v>417845.669887361</v>
       </c>
       <c r="AH97">
-        <v>204269.1185</v>
+        <v>435811.852359239</v>
       </c>
       <c r="AI97">
-        <v>204269.1185</v>
+        <v>454550.529883418</v>
       </c>
       <c r="AJ97">
-        <v>204269.1185</v>
+        <v>474094.917563146</v>
       </c>
       <c r="AK97">
-        <v>204269.1185</v>
+        <v>494479.658657211</v>
       </c>
       <c r="AL97">
-        <v>204269.1185</v>
+        <v>515740.88598658</v>
       </c>
       <c r="AM97">
-        <v>204269.1185</v>
+        <v>537916.28598137</v>
       </c>
       <c r="AN97">
-        <v>204269.1185</v>
+        <v>561045.165481645</v>
       </c>
       <c r="AO97">
-        <v>204269.1185</v>
+        <v>585168.521410464</v>
       </c>
       <c r="AP97">
-        <v>204269.1185</v>
+        <v>610329.11344267</v>
       </c>
       <c r="AQ97">
-        <v>204269.1185</v>
+        <v>636571.539798236</v>
       </c>
       <c r="AR97">
-        <v>204269.1185</v>
+        <v>663942.316294502</v>
       </c>
       <c r="AS97">
-        <v>204269.1185</v>
+        <v>692489.9587974499</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>335571.0296</v>
+        <v>213269.959730345</v>
       </c>
       <c r="K98">
-        <v>335571.0296</v>
+        <v>243307.677450407</v>
       </c>
       <c r="L98">
-        <v>335571.0296</v>
+        <v>248364.690415284</v>
       </c>
       <c r="M98">
-        <v>335571.0296</v>
+        <v>304033.027738509</v>
       </c>
       <c r="N98">
-        <v>335571.0296</v>
+        <v>337324.805659277</v>
       </c>
       <c r="O98">
-        <v>335571.0296</v>
+        <v>335571.029555977</v>
       </c>
       <c r="P98">
-        <v>335571.0296</v>
+        <v>335571</v>
       </c>
       <c r="Q98">
-        <v>335571.0296</v>
+        <v>358363.800442098</v>
       </c>
       <c r="R98">
-        <v>335571.0296</v>
+        <v>382704.743459071</v>
       </c>
       <c r="S98">
-        <v>335571.0296</v>
+        <v>408698.982668976</v>
       </c>
       <c r="T98">
-        <v>335571.0296</v>
+        <v>436458.813979972</v>
       </c>
       <c r="U98">
-        <v>335571.0296</v>
+        <v>466104.16071208</v>
       </c>
       <c r="V98">
-        <v>335571.0296</v>
+        <v>497763.091669589</v>
       </c>
       <c r="W98">
-        <v>335571.0296</v>
+        <v>531572.374402205</v>
       </c>
       <c r="X98">
-        <v>335571.0296</v>
+        <v>567678.066045051</v>
       </c>
       <c r="Y98">
-        <v>335571.0296</v>
+        <v>606236.144289956</v>
       </c>
       <c r="Z98">
-        <v>335571.0296</v>
+        <v>647413.18121385</v>
       </c>
       <c r="AA98">
-        <v>335571.0296</v>
+        <v>691387.06287523</v>
       </c>
       <c r="AB98">
-        <v>335571.0296</v>
+        <v>738347.757787375</v>
       </c>
       <c r="AC98">
-        <v>335571.0296</v>
+        <v>788498.137588128</v>
       </c>
       <c r="AD98">
-        <v>335571.0296</v>
+        <v>842054.8534515731</v>
       </c>
       <c r="AE98">
-        <v>335571.0296</v>
+        <v>899249.2720277359</v>
       </c>
       <c r="AF98">
-        <v>335571.0296</v>
+        <v>960328.474953585</v>
       </c>
       <c r="AG98">
-        <v>335571.0296</v>
+        <v>1025556.32625325</v>
       </c>
       <c r="AH98">
-        <v>335571.0296</v>
+        <v>1095214.6122387</v>
       </c>
       <c r="AI98">
-        <v>335571.0296</v>
+        <v>1169604.25883518</v>
       </c>
       <c r="AJ98">
-        <v>335571.0296</v>
+        <v>1249046.63159045</v>
       </c>
       <c r="AK98">
-        <v>335571.0296</v>
+        <v>1333884.92398376</v>
       </c>
       <c r="AL98">
-        <v>335571.0296</v>
+        <v>1424485.64003218</v>
       </c>
       <c r="AM98">
-        <v>335571.0296</v>
+        <v>1521240.17759915</v>
       </c>
       <c r="AN98">
-        <v>335571.0296</v>
+        <v>1624566.51924524</v>
       </c>
       <c r="AO98">
-        <v>335571.0296</v>
+        <v>1734911.03792555</v>
       </c>
       <c r="AP98">
-        <v>335571.0296</v>
+        <v>1852750.42533457</v>
       </c>
       <c r="AQ98">
-        <v>335571.0296</v>
+        <v>1978593.75122883</v>
       </c>
       <c r="AR98">
-        <v>335571.0296</v>
+        <v>2112984.66262385</v>
       </c>
       <c r="AS98">
-        <v>335571.0296</v>
+        <v>2256503.73236587</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>40022.08893</v>
+        <v>32105.947345554</v>
       </c>
       <c r="K99">
-        <v>40022.08893</v>
+        <v>31208.0322434067</v>
       </c>
       <c r="L99">
-        <v>40022.08893</v>
+        <v>33143.0079769574</v>
       </c>
       <c r="M99">
-        <v>40022.08893</v>
+        <v>35817.5456594234</v>
       </c>
       <c r="N99">
-        <v>40022.08893</v>
+        <v>38647.3460647448</v>
       </c>
       <c r="O99">
-        <v>40022.08893</v>
+        <v>40022.0889332774</v>
       </c>
       <c r="P99">
-        <v>40022.08893</v>
+        <v>40022.09</v>
       </c>
       <c r="Q99">
-        <v>40022.08893</v>
+        <v>42821.9433775996</v>
       </c>
       <c r="R99">
-        <v>40022.08893</v>
+        <v>45817.6680586733</v>
       </c>
       <c r="S99">
-        <v>40022.08893</v>
+        <v>49022.9667491669</v>
       </c>
       <c r="T99">
-        <v>40022.08893</v>
+        <v>52452.5007648219</v>
       </c>
       <c r="U99">
-        <v>40022.08893</v>
+        <v>56121.9570933129</v>
       </c>
       <c r="V99">
-        <v>40022.08893</v>
+        <v>60048.1201478963</v>
       </c>
       <c r="W99">
-        <v>40022.08893</v>
+        <v>64248.9485407812</v>
       </c>
       <c r="X99">
-        <v>40022.08893</v>
+        <v>68743.6572273873</v>
       </c>
       <c r="Y99">
-        <v>40022.08893</v>
+        <v>73552.8053972268</v>
       </c>
       <c r="Z99">
-        <v>40022.08893</v>
+        <v>78698.39051343031</v>
       </c>
       <c r="AA99">
-        <v>40022.08893</v>
+        <v>84203.9489310612</v>
       </c>
       <c r="AB99">
-        <v>40022.08893</v>
+        <v>90094.6635544569</v>
       </c>
       <c r="AC99">
-        <v>40022.08893</v>
+        <v>96397.4790260289</v>
       </c>
       <c r="AD99">
-        <v>40022.08893</v>
+        <v>103141.224973407</v>
       </c>
       <c r="AE99">
-        <v>40022.08893</v>
+        <v>110356.747878672</v>
       </c>
       <c r="AF99">
-        <v>40022.08893</v>
+        <v>118077.052172851</v>
       </c>
       <c r="AG99">
-        <v>40022.08893</v>
+        <v>126337.451201066</v>
       </c>
       <c r="AH99">
-        <v>40022.08893</v>
+        <v>135175.728748857</v>
       </c>
       <c r="AI99">
-        <v>40022.08893</v>
+        <v>144632.311868503</v>
       </c>
       <c r="AJ99">
-        <v>40022.08893</v>
+        <v>154750.455795896</v>
       </c>
       <c r="AK99">
-        <v>40022.08893</v>
+        <v>165576.441803754</v>
       </c>
       <c r="AL99">
-        <v>40022.08893</v>
+        <v>177159.788896201</v>
       </c>
       <c r="AM99">
-        <v>40022.08893</v>
+        <v>189553.480313013</v>
       </c>
       <c r="AN99">
-        <v>40022.08893</v>
+        <v>202814.205879573</v>
       </c>
       <c r="AO99">
-        <v>40022.08893</v>
+        <v>217002.621311078</v>
       </c>
       <c r="AP99">
-        <v>40022.08893</v>
+        <v>232183.625657073</v>
       </c>
       <c r="AQ99">
-        <v>40022.08893</v>
+        <v>248426.658155358</v>
       </c>
       <c r="AR99">
-        <v>40022.08893</v>
+        <v>265806.015853121</v>
       </c>
       <c r="AS99">
-        <v>40022.08893</v>
+        <v>284401.193448111</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>858774.1147</v>
+        <v>1680065.35757331</v>
       </c>
       <c r="K100">
-        <v>858774.1147</v>
+        <v>888570.984653814</v>
       </c>
       <c r="L100">
-        <v>858774.1147</v>
+        <v>1060271.201573</v>
       </c>
       <c r="M100">
-        <v>858774.1147</v>
+        <v>1050411.22764009</v>
       </c>
       <c r="N100">
-        <v>858774.1147</v>
+        <v>956642.3367598359</v>
       </c>
       <c r="O100">
-        <v>858774.1147</v>
+        <v>858774.114672421</v>
       </c>
       <c r="P100">
-        <v>858774.1147</v>
+        <v>858774.1</v>
       </c>
       <c r="Q100">
-        <v>858774.1147</v>
+        <v>842148.292679413</v>
       </c>
       <c r="R100">
-        <v>858774.1147</v>
+        <v>825844.359841372</v>
       </c>
       <c r="S100">
-        <v>858774.1147</v>
+        <v>809856.070018103</v>
       </c>
       <c r="T100">
-        <v>858774.1147</v>
+        <v>794177.312382622</v>
       </c>
       <c r="U100">
-        <v>858774.1147</v>
+        <v>778802.094413129</v>
       </c>
       <c r="V100">
-        <v>858774.1147</v>
+        <v>763724.539602635</v>
       </c>
       <c r="W100">
-        <v>858774.1147</v>
+        <v>748938.885212921</v>
       </c>
       <c r="X100">
-        <v>858774.1147</v>
+        <v>734439.480071982</v>
       </c>
       <c r="Y100">
-        <v>858774.1147</v>
+        <v>720220.7824141131</v>
       </c>
       <c r="Z100">
-        <v>858774.1147</v>
+        <v>706277.35776181</v>
       </c>
       <c r="AA100">
-        <v>858774.1147</v>
+        <v>692603.876848679</v>
       </c>
       <c r="AB100">
-        <v>858774.1147</v>
+        <v>679195.113582556</v>
       </c>
       <c r="AC100">
-        <v>858774.1147</v>
+        <v>666045.9430480601</v>
       </c>
       <c r="AD100">
-        <v>858774.1147</v>
+        <v>653151.33954782</v>
       </c>
       <c r="AE100">
-        <v>858774.1147</v>
+        <v>640506.374681617</v>
       </c>
       <c r="AF100">
-        <v>858774.1147</v>
+        <v>628106.21546272</v>
       </c>
       <c r="AG100">
-        <v>858774.1147</v>
+        <v>615946.122470691</v>
       </c>
       <c r="AH100">
-        <v>858774.1147</v>
+        <v>604021.448039941</v>
       </c>
       <c r="AI100">
-        <v>858774.1147</v>
+        <v>592327.634483368</v>
       </c>
       <c r="AJ100">
-        <v>858774.1147</v>
+        <v>580860.212350376</v>
       </c>
       <c r="AK100">
-        <v>858774.1147</v>
+        <v>569614.798718628</v>
       </c>
       <c r="AL100">
-        <v>858774.1147</v>
+        <v>558587.095518856</v>
       </c>
       <c r="AM100">
-        <v>858774.1147</v>
+        <v>547772.887892121</v>
       </c>
       <c r="AN100">
-        <v>858774.1147</v>
+        <v>537168.042578858</v>
       </c>
       <c r="AO100">
-        <v>858774.1147</v>
+        <v>526768.506339127</v>
       </c>
       <c r="AP100">
-        <v>858774.1147</v>
+        <v>516570.304403428</v>
       </c>
       <c r="AQ100">
-        <v>858774.1147</v>
+        <v>506569.538953529</v>
       </c>
       <c r="AR100">
-        <v>858774.1147</v>
+        <v>496762.387632687</v>
       </c>
       <c r="AS100">
-        <v>858774.1147</v>
+        <v>487145.102084723</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>1701991.051</v>
+        <v>1131515.28131103</v>
       </c>
       <c r="K101">
-        <v>1701991.051</v>
+        <v>1071341.85070564</v>
       </c>
       <c r="L101">
-        <v>1701991.051</v>
+        <v>1283367.95584282</v>
       </c>
       <c r="M101">
-        <v>1701991.051</v>
+        <v>1547203.12108103</v>
       </c>
       <c r="N101">
-        <v>1701991.051</v>
+        <v>1660328.60479078</v>
       </c>
       <c r="O101">
-        <v>1701991.051</v>
+        <v>1701991.05060139</v>
       </c>
       <c r="P101">
-        <v>1701991.051</v>
+        <v>1701991</v>
       </c>
       <c r="Q101">
-        <v>1701991.051</v>
+        <v>1813965.98559712</v>
       </c>
       <c r="R101">
-        <v>1701991.051</v>
+        <v>1933307.87113642</v>
       </c>
       <c r="S101">
-        <v>1701991.051</v>
+        <v>2060501.32928356</v>
       </c>
       <c r="T101">
-        <v>1701991.051</v>
+        <v>2196062.919603</v>
       </c>
       <c r="U101">
-        <v>1701991.051</v>
+        <v>2340543.18641577</v>
       </c>
       <c r="V101">
-        <v>1701991.051</v>
+        <v>2494528.89467648</v>
       </c>
       <c r="W101">
-        <v>1701991.051</v>
+        <v>2658645.41295008</v>
       </c>
       <c r="X101">
-        <v>1701991.051</v>
+        <v>2833559.25316601</v>
       </c>
       <c r="Y101">
-        <v>1701991.051</v>
+        <v>3019980.77746423</v>
       </c>
       <c r="Z101">
-        <v>1701991.051</v>
+        <v>3218667.08312633</v>
       </c>
       <c r="AA101">
-        <v>1701991.051</v>
+        <v>3430425.07730786</v>
       </c>
       <c r="AB101">
-        <v>1701991.051</v>
+        <v>3656114.75405912</v>
       </c>
       <c r="AC101">
-        <v>1701991.051</v>
+        <v>3896652.68694314</v>
       </c>
       <c r="AD101">
-        <v>1701991.051</v>
+        <v>4153015.75143494</v>
       </c>
       <c r="AE101">
-        <v>1701991.051</v>
+        <v>4426245.09221967</v>
       </c>
       <c r="AF101">
-        <v>1701991.051</v>
+        <v>4717450.35150168</v>
       </c>
       <c r="AG101">
-        <v>1701991.051</v>
+        <v>5027814.17549637</v>
       </c>
       <c r="AH101">
-        <v>1701991.051</v>
+        <v>5358597.01740694</v>
       </c>
       <c r="AI101">
-        <v>1701991.051</v>
+        <v>5711142.25639172</v>
       </c>
       <c r="AJ101">
-        <v>1701991.051</v>
+        <v>6086881.65331132</v>
       </c>
       <c r="AK101">
-        <v>1701991.051</v>
+        <v>6487341.1654127</v>
       </c>
       <c r="AL101">
-        <v>1701991.051</v>
+        <v>6914147.14356459</v>
       </c>
       <c r="AM101">
-        <v>1701991.051</v>
+        <v>7369032.93721276</v>
       </c>
       <c r="AN101">
-        <v>1701991.051</v>
+        <v>7853845.93387909</v>
       </c>
       <c r="AO101">
-        <v>1701991.051</v>
+        <v>8370555.06179348</v>
       </c>
       <c r="AP101">
-        <v>1701991.051</v>
+        <v>8921258.786128251</v>
       </c>
       <c r="AQ101">
-        <v>1701991.051</v>
+        <v>9508193.63130953</v>
       </c>
       <c r="AR101">
-        <v>1701991.051</v>
+        <v>10133743.2640165</v>
       </c>
       <c r="AS101">
-        <v>1701991.051</v>
+        <v>10800448.1737564</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>5693573.41029101</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>2978110.69989548</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>2086345.8801511</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>3230715.29922382</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>3785583.16375786</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>774225.61666885</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>774225.6</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>811491.448961632</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>850551.017349271</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>891490.642371616</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>934400.816911608</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>979376.389551745</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>1026516.77422725</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>1075926.16997047</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>1127713.79123227</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>1181994.10928945</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>1238887.10527191</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>1298518.53536874</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>1361020.2087995</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>1426530.27916511</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>1495193.54982234</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>1567161.79395698</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>1642594.09006298</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>1721657.17356933</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>1804525.80539182</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>1891383.15822425</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>1982421.22142309</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>2077841.22538044</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>2177854.08632341</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>2282680.87252293</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>2392553.29294283</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>2507714.20940886</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>2628418.17343016</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>2754931.98885949</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>2887535.30163603</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>3026521.21791438</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>710539.4611</v>
+        <v>638416.0051241081</v>
       </c>
       <c r="K103">
-        <v>710539.4611</v>
+        <v>646797.418758036</v>
       </c>
       <c r="L103">
-        <v>710539.4611</v>
+        <v>716952.084571566</v>
       </c>
       <c r="M103">
-        <v>710539.4611</v>
+        <v>665744.559176599</v>
       </c>
       <c r="N103">
-        <v>710539.4611</v>
+        <v>712445.121981666</v>
       </c>
       <c r="O103">
-        <v>710539.4611</v>
+        <v>710539.46105489</v>
       </c>
       <c r="P103">
-        <v>710539.4611</v>
+        <v>710539.5</v>
       </c>
       <c r="Q103">
-        <v>710539.4611</v>
+        <v>746749.054770675</v>
       </c>
       <c r="R103">
-        <v>710539.4611</v>
+        <v>784803.871988674</v>
       </c>
       <c r="S103">
-        <v>710539.4611</v>
+        <v>824797.987427734</v>
       </c>
       <c r="T103">
-        <v>710539.4611</v>
+        <v>866830.228985743</v>
       </c>
       <c r="U103">
-        <v>710539.4611</v>
+        <v>911004.460894505</v>
       </c>
       <c r="V103">
-        <v>710539.4611</v>
+        <v>957429.840374589</v>
       </c>
       <c r="W103">
-        <v>710539.4611</v>
+        <v>1006221.08736947</v>
       </c>
       <c r="X103">
-        <v>710539.4611</v>
+        <v>1057498.76802553</v>
       </c>
       <c r="Y103">
-        <v>710539.4611</v>
+        <v>1111389.59261831</v>
       </c>
       <c r="Z103">
-        <v>710539.4611</v>
+        <v>1168026.72866137</v>
       </c>
       <c r="AA103">
-        <v>710539.4611</v>
+        <v>1227550.12997133</v>
       </c>
       <c r="AB103">
-        <v>710539.4611</v>
+        <v>1290106.88250225</v>
       </c>
       <c r="AC103">
-        <v>710539.4611</v>
+        <v>1355851.56780404</v>
       </c>
       <c r="AD103">
-        <v>710539.4611</v>
+        <v>1424946.64500285</v>
       </c>
       <c r="AE103">
-        <v>710539.4611</v>
+        <v>1497562.85224752</v>
       </c>
       <c r="AF103">
-        <v>710539.4611</v>
+        <v>1573879.62861391</v>
       </c>
       <c r="AG103">
-        <v>710539.4611</v>
+        <v>1654085.55750983</v>
       </c>
       <c r="AH103">
-        <v>710539.4611</v>
+        <v>1738378.83267614</v>
       </c>
       <c r="AI103">
-        <v>710539.4611</v>
+        <v>1826967.74793556</v>
       </c>
       <c r="AJ103">
-        <v>710539.4611</v>
+        <v>1920071.21189939</v>
       </c>
       <c r="AK103">
-        <v>710539.4611</v>
+        <v>2017919.28890407</v>
       </c>
       <c r="AL103">
-        <v>710539.4611</v>
+        <v>2120753.76751416</v>
       </c>
       <c r="AM103">
-        <v>710539.4611</v>
+        <v>2228828.75799663</v>
       </c>
       <c r="AN103">
-        <v>710539.4611</v>
+        <v>2342411.32024283</v>
       </c>
       <c r="AO103">
-        <v>710539.4611</v>
+        <v>2461782.12368977</v>
       </c>
       <c r="AP103">
-        <v>710539.4611</v>
+        <v>2587236.14087138</v>
       </c>
       <c r="AQ103">
-        <v>710539.4611</v>
+        <v>2719083.37631368</v>
       </c>
       <c r="AR103">
-        <v>710539.4611</v>
+        <v>2857649.63257481</v>
       </c>
       <c r="AS103">
-        <v>710539.4611</v>
+        <v>3003277.31532309</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>558346.3759</v>
+        <v>444829.300044985</v>
       </c>
       <c r="K104">
-        <v>558346.3759</v>
+        <v>464726.510804118</v>
       </c>
       <c r="L104">
-        <v>558346.3759</v>
+        <v>495133.552705071</v>
       </c>
       <c r="M104">
-        <v>558346.3759</v>
+        <v>534335.928743316</v>
       </c>
       <c r="N104">
-        <v>558346.3759</v>
+        <v>545622.112267746</v>
       </c>
       <c r="O104">
-        <v>558346.3759</v>
+        <v>558346.3758981921</v>
       </c>
       <c r="P104">
-        <v>558346.3759</v>
+        <v>558346.4</v>
       </c>
       <c r="Q104">
-        <v>558346.3759</v>
+        <v>592916.448176721</v>
       </c>
       <c r="R104">
-        <v>558346.3759</v>
+        <v>629626.902794571</v>
       </c>
       <c r="S104">
-        <v>558346.3759</v>
+        <v>668610.287236502</v>
       </c>
       <c r="T104">
-        <v>558346.3759</v>
+        <v>710007.330078038</v>
       </c>
       <c r="U104">
-        <v>558346.3759</v>
+        <v>753967.473112224</v>
       </c>
       <c r="V104">
-        <v>558346.3759</v>
+        <v>800649.410828972</v>
       </c>
       <c r="W104">
-        <v>558346.3759</v>
+        <v>850221.663296296</v>
       </c>
       <c r="X104">
-        <v>558346.3759</v>
+        <v>902863.1845115219</v>
       </c>
       <c r="Y104">
-        <v>558346.3759</v>
+        <v>958764.0084186</v>
       </c>
       <c r="Z104">
-        <v>558346.3759</v>
+        <v>1018125.93492361</v>
       </c>
       <c r="AA104">
-        <v>558346.3759</v>
+        <v>1081163.25838496</v>
       </c>
       <c r="AB104">
-        <v>558346.3759</v>
+        <v>1148103.54120807</v>
       </c>
       <c r="AC104">
-        <v>558346.3759</v>
+        <v>1219188.43533729</v>
       </c>
       <c r="AD104">
-        <v>558346.3759</v>
+        <v>1294674.5546104</v>
       </c>
       <c r="AE104">
-        <v>558346.3759</v>
+        <v>1374834.40112514</v>
       </c>
       <c r="AF104">
-        <v>558346.3759</v>
+        <v>1459957.34896166</v>
       </c>
       <c r="AG104">
-        <v>558346.3759</v>
+        <v>1550350.68881227</v>
       </c>
       <c r="AH104">
-        <v>558346.3759</v>
+        <v>1646340.73728943</v>
       </c>
       <c r="AI104">
-        <v>558346.3759</v>
+        <v>1748274.01491672</v>
       </c>
       <c r="AJ104">
-        <v>558346.3759</v>
+        <v>1856518.49705501</v>
       </c>
       <c r="AK104">
-        <v>558346.3759</v>
+        <v>1971464.94228</v>
       </c>
       <c r="AL104">
-        <v>558346.3759</v>
+        <v>2093528.30300613</v>
       </c>
       <c r="AM104">
-        <v>558346.3759</v>
+        <v>2223149.22344951</v>
       </c>
       <c r="AN104">
-        <v>558346.3759</v>
+        <v>2360795.63033723</v>
       </c>
       <c r="AO104">
-        <v>558346.3759</v>
+        <v>2506964.42210548</v>
       </c>
       <c r="AP104">
-        <v>558346.3759</v>
+        <v>2662183.26268457</v>
       </c>
       <c r="AQ104">
-        <v>558346.3759</v>
+        <v>2827012.4863462</v>
       </c>
       <c r="AR104">
-        <v>558346.3759</v>
+        <v>3002047.12048942</v>
       </c>
       <c r="AS104">
-        <v>558346.3759</v>
+        <v>3187919.03366752</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>8252.990288999999</v>
+        <v>10718.1652403502</v>
       </c>
       <c r="K111">
-        <v>8252.990288999999</v>
+        <v>10116.9427136264</v>
       </c>
       <c r="L111">
-        <v>8252.990288999999</v>
+        <v>9452.581899016281</v>
       </c>
       <c r="M111">
-        <v>8252.990288999999</v>
+        <v>9076.28496846161</v>
       </c>
       <c r="N111">
-        <v>8252.990288999999</v>
+        <v>9512.48698132631</v>
       </c>
       <c r="O111">
-        <v>8252.990288999999</v>
+        <v>8252.990289068461</v>
       </c>
       <c r="P111">
-        <v>8252.990288999999</v>
+        <v>8252.99</v>
       </c>
       <c r="Q111">
-        <v>8252.990288999999</v>
+        <v>8425.81475686404</v>
       </c>
       <c r="R111">
-        <v>8252.990288999999</v>
+        <v>8602.258613785771</v>
       </c>
       <c r="S111">
-        <v>8252.990288999999</v>
+        <v>8782.397357854181</v>
       </c>
       <c r="T111">
-        <v>8252.990288999999</v>
+        <v>8966.30836320552</v>
       </c>
       <c r="U111">
-        <v>8252.990288999999</v>
+        <v>9154.07062425746</v>
       </c>
       <c r="V111">
-        <v>8252.990288999999</v>
+        <v>9345.764789639161</v>
       </c>
       <c r="W111">
-        <v>8252.990288999999</v>
+        <v>9541.473196831939</v>
       </c>
       <c r="X111">
-        <v>8252.990288999999</v>
+        <v>9741.27990753524</v>
       </c>
       <c r="Y111">
-        <v>8252.990288999999</v>
+        <v>9945.270743773301</v>
       </c>
       <c r="Z111">
-        <v>8252.990288999999</v>
+        <v>10153.5333247579</v>
       </c>
       <c r="AA111">
-        <v>8252.990288999999</v>
+        <v>10366.1571045228</v>
       </c>
       <c r="AB111">
-        <v>8252.990288999999</v>
+        <v>10583.2334103469</v>
       </c>
       <c r="AC111">
-        <v>8252.990288999999</v>
+        <v>10804.8554819814</v>
       </c>
       <c r="AD111">
-        <v>8252.990288999999</v>
+        <v>11031.1185116985</v>
       </c>
       <c r="AE111">
-        <v>8252.990288999999</v>
+        <v>11262.119685179</v>
       </c>
       <c r="AF111">
-        <v>8252.990288999999</v>
+        <v>11497.958223256</v>
       </c>
       <c r="AG111">
-        <v>8252.990288999999</v>
+        <v>11738.735424533</v>
       </c>
       <c r="AH111">
-        <v>8252.990288999999</v>
+        <v>11984.5547088938</v>
       </c>
       <c r="AI111">
-        <v>8252.990288999999</v>
+        <v>12235.5216619239</v>
       </c>
       <c r="AJ111">
-        <v>8252.990288999999</v>
+        <v>12491.7440802628</v>
       </c>
       <c r="AK111">
-        <v>8252.990288999999</v>
+        <v>12753.3320179047</v>
       </c>
       <c r="AL111">
-        <v>8252.990288999999</v>
+        <v>13020.3978334699</v>
       </c>
       <c r="AM111">
-        <v>8252.990288999999</v>
+        <v>13293.0562384652</v>
       </c>
       <c r="AN111">
-        <v>8252.990288999999</v>
+        <v>13571.4243465561</v>
       </c>
       <c r="AO111">
-        <v>8252.990288999999</v>
+        <v>13855.6217238693</v>
       </c>
       <c r="AP111">
-        <v>8252.990288999999</v>
+        <v>14145.77044035</v>
       </c>
       <c r="AQ111">
-        <v>8252.990288999999</v>
+        <v>14441.9951221935</v>
       </c>
       <c r="AR111">
-        <v>8252.990288999999</v>
+        <v>14744.4230053758</v>
       </c>
       <c r="AS111">
-        <v>8252.990288999999</v>
+        <v>15053.1839903043</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>138331.462</v>
+        <v>155301.990365553</v>
       </c>
       <c r="K112">
-        <v>138331.462</v>
+        <v>151803.77697392</v>
       </c>
       <c r="L112">
-        <v>138331.462</v>
+        <v>153900.077552143</v>
       </c>
       <c r="M112">
-        <v>138331.462</v>
+        <v>144916.430808095</v>
       </c>
       <c r="N112">
-        <v>138331.462</v>
+        <v>151759.735813147</v>
       </c>
       <c r="O112">
-        <v>138331.462</v>
+        <v>138331.46203274</v>
       </c>
       <c r="P112">
-        <v>138331.462</v>
+        <v>138331.5</v>
       </c>
       <c r="Q112">
-        <v>138331.462</v>
+        <v>140235.858757676</v>
       </c>
       <c r="R112">
-        <v>138331.462</v>
+        <v>142166.434120232</v>
       </c>
       <c r="S112">
-        <v>138331.462</v>
+        <v>144123.587002001</v>
       </c>
       <c r="T112">
-        <v>138331.462</v>
+        <v>146107.683285891</v>
       </c>
       <c r="U112">
-        <v>138331.462</v>
+        <v>148119.093891785</v>
       </c>
       <c r="V112">
-        <v>138331.462</v>
+        <v>150158.194845883</v>
       </c>
       <c r="W112">
-        <v>138331.462</v>
+        <v>152225.367351</v>
       </c>
       <c r="X112">
-        <v>138331.462</v>
+        <v>154320.997857828</v>
       </c>
       <c r="Y112">
-        <v>138331.462</v>
+        <v>156445.478137185</v>
       </c>
       <c r="Z112">
-        <v>138331.462</v>
+        <v>158599.205353252</v>
       </c>
       <c r="AA112">
-        <v>138331.462</v>
+        <v>160782.582137823</v>
       </c>
       <c r="AB112">
-        <v>138331.462</v>
+        <v>162996.016665576</v>
       </c>
       <c r="AC112">
-        <v>138331.462</v>
+        <v>165239.92273038</v>
       </c>
       <c r="AD112">
-        <v>138331.462</v>
+        <v>167514.71982265</v>
       </c>
       <c r="AE112">
-        <v>138331.462</v>
+        <v>169820.833207771</v>
       </c>
       <c r="AF112">
-        <v>138331.462</v>
+        <v>172158.694005601</v>
       </c>
       <c r="AG112">
-        <v>138331.462</v>
+        <v>174528.739271066</v>
       </c>
       <c r="AH112">
-        <v>138331.462</v>
+        <v>176931.412075864</v>
       </c>
       <c r="AI112">
-        <v>138331.462</v>
+        <v>179367.161591301</v>
       </c>
       <c r="AJ112">
-        <v>138331.462</v>
+        <v>181836.443172256</v>
       </c>
       <c r="AK112">
-        <v>138331.462</v>
+        <v>184339.718442312</v>
       </c>
       <c r="AL112">
-        <v>138331.462</v>
+        <v>186877.455380053</v>
       </c>
       <c r="AM112">
-        <v>138331.462</v>
+        <v>189450.128406552</v>
       </c>
       <c r="AN112">
-        <v>138331.462</v>
+        <v>192058.218474063</v>
       </c>
       <c r="AO112">
-        <v>138331.462</v>
+        <v>194702.21315593</v>
       </c>
       <c r="AP112">
-        <v>138331.462</v>
+        <v>197382.606737742</v>
       </c>
       <c r="AQ112">
-        <v>138331.462</v>
+        <v>200099.900309733</v>
       </c>
       <c r="AR112">
-        <v>138331.462</v>
+        <v>202854.601860464</v>
       </c>
       <c r="AS112">
-        <v>138331.462</v>
+        <v>205647.226371786</v>
       </c>
     </row>
     <row r="113" spans="1:45">
